--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CopperA-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CopperA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1093,7 @@
         <v>0.9941687112364865</v>
       </c>
       <c r="L13">
-        <v>0.9927591642822556</v>
+        <v>0.9927591642822557</v>
       </c>
       <c r="M13">
         <v>0.9932631326099548</v>
@@ -1105,7 +1105,7 @@
         <v>0.9940650439194845</v>
       </c>
       <c r="P13">
-        <v>0.9941924247502771</v>
+        <v>0.9941924247502772</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9971727548642781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.067466239315418</v>
+      </c>
+      <c r="D16">
+        <v>0.8773520961605883</v>
+      </c>
+      <c r="E16">
+        <v>1.070699185305034</v>
+      </c>
+      <c r="F16">
+        <v>0.9439715217766051</v>
+      </c>
+      <c r="G16">
+        <v>1.067466239315418</v>
+      </c>
+      <c r="H16">
+        <v>0.8773520961605883</v>
+      </c>
+      <c r="I16">
+        <v>1.055506493621435</v>
+      </c>
+      <c r="J16">
+        <v>0.9784606975843092</v>
+      </c>
+      <c r="K16">
+        <v>1.003181088641286</v>
+      </c>
+      <c r="L16">
+        <v>0.9002881726143893</v>
+      </c>
+      <c r="M16">
+        <v>1.067466239315418</v>
+      </c>
+      <c r="N16">
+        <v>0.9740256407328109</v>
+      </c>
+      <c r="O16">
+        <v>0.9898722606394112</v>
+      </c>
+      <c r="P16">
+        <v>0.9871156868773832</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.067466239315418</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW20.xlsx
@@ -1096,7 +1096,7 @@
         <v>0.9941687112364865</v>
       </c>
       <c r="L13">
-        <v>0.9927591642822557</v>
+        <v>0.9927591642822556</v>
       </c>
       <c r="M13">
         <v>0.9932631326099548</v>
@@ -1108,7 +1108,7 @@
         <v>0.9940650439194845</v>
       </c>
       <c r="P13">
-        <v>0.9941924247502772</v>
+        <v>0.9941924247502771</v>
       </c>
     </row>
     <row r="14" spans="1:16">

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.309716000000002</v>
+        <v>1.067466239315418</v>
       </c>
       <c r="D10">
-        <v>0.3944600000000001</v>
+        <v>0.8773520961605883</v>
       </c>
       <c r="E10">
-        <v>1.108312000000001</v>
+        <v>1.070699185305034</v>
       </c>
       <c r="F10">
-        <v>0.9071920000000002</v>
+        <v>0.9439715217766051</v>
       </c>
       <c r="G10">
-        <v>1.309716000000002</v>
+        <v>1.067466239315418</v>
       </c>
       <c r="H10">
-        <v>0.3944600000000001</v>
+        <v>0.8773520961605883</v>
       </c>
       <c r="I10">
-        <v>1.180672</v>
+        <v>1.055506493621435</v>
       </c>
       <c r="J10">
-        <v>0.8754920000000015</v>
+        <v>0.9784606975843092</v>
       </c>
       <c r="K10">
-        <v>1.162468000000001</v>
+        <v>1.003181088641286</v>
       </c>
       <c r="L10">
-        <v>0.6492720000000026</v>
+        <v>0.9002881726143893</v>
       </c>
       <c r="M10">
-        <v>1.309716000000002</v>
+        <v>1.067466239315418</v>
       </c>
       <c r="N10">
-        <v>0.7513860000000003</v>
+        <v>0.9740256407328109</v>
       </c>
       <c r="O10">
-        <v>0.9299200000000007</v>
+        <v>0.9898722606394112</v>
       </c>
       <c r="P10">
-        <v>0.9484480000000011</v>
+        <v>0.9871156868773832</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.524012500000001</v>
+        <v>1.077804198382943</v>
       </c>
       <c r="D11">
-        <v>0.44</v>
+        <v>0.3440270037562719</v>
       </c>
       <c r="E11">
-        <v>0.84</v>
+        <v>1.403425352726551</v>
       </c>
       <c r="F11">
-        <v>0.9701375000000003</v>
+        <v>0.8376311809785424</v>
       </c>
       <c r="G11">
-        <v>1.524012500000001</v>
+        <v>1.077804198382943</v>
       </c>
       <c r="H11">
-        <v>0.44</v>
+        <v>0.3440270037562719</v>
       </c>
       <c r="I11">
-        <v>1.079724999999999</v>
+        <v>1.291076887109758</v>
       </c>
       <c r="J11">
-        <v>0.7901375000000004</v>
+        <v>0.9703932391322229</v>
       </c>
       <c r="K11">
-        <v>1.271237499999998</v>
+        <v>1.043558715844727</v>
       </c>
       <c r="L11">
-        <v>0.72</v>
+        <v>0.573913743313366</v>
       </c>
       <c r="M11">
-        <v>1.524012500000001</v>
+        <v>1.077804198382943</v>
       </c>
       <c r="N11">
-        <v>0.64</v>
+        <v>0.8737261782414114</v>
       </c>
       <c r="O11">
-        <v>0.9435375000000004</v>
+        <v>0.9157219339610772</v>
       </c>
       <c r="P11">
-        <v>0.9544062499999999</v>
+        <v>0.9427287901555478</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.299947330559997</v>
+        <v>1.078393670575991</v>
       </c>
       <c r="D12">
-        <v>0.6708016477184017</v>
+        <v>0.3442814100132307</v>
       </c>
       <c r="E12">
-        <v>0.907142698598401</v>
+        <v>1.402481029769529</v>
       </c>
       <c r="F12">
-        <v>0.9796383726591984</v>
+        <v>0.8378528482072</v>
       </c>
       <c r="G12">
-        <v>1.299947330559997</v>
+        <v>1.078393670575991</v>
       </c>
       <c r="H12">
-        <v>0.6708016477184017</v>
+        <v>0.3442814100132307</v>
       </c>
       <c r="I12">
-        <v>1.045323299123201</v>
+        <v>1.290811732794739</v>
       </c>
       <c r="J12">
-        <v>0.8776181765120009</v>
+        <v>0.9701517281235125</v>
       </c>
       <c r="K12">
-        <v>1.153602846003199</v>
+        <v>1.043881557406747</v>
       </c>
       <c r="L12">
-        <v>0.8333974270975991</v>
+        <v>0.5739688882246932</v>
       </c>
       <c r="M12">
-        <v>1.299938626150397</v>
+        <v>1.078393670575991</v>
       </c>
       <c r="N12">
-        <v>0.7889721731584014</v>
+        <v>0.87338121989138</v>
       </c>
       <c r="O12">
-        <v>0.9643825123839993</v>
+        <v>0.9157522396414877</v>
       </c>
       <c r="P12">
-        <v>0.9709339747839997</v>
+        <v>0.9427278581394551</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9932715404578597</v>
+        <v>1.077482013124339</v>
       </c>
       <c r="D13">
-        <v>0.9938945841856551</v>
+        <v>0.3439787073714256</v>
       </c>
       <c r="E13">
-        <v>0.9956860940398954</v>
+        <v>1.403790993823035</v>
       </c>
       <c r="F13">
-        <v>0.9934079569945276</v>
+        <v>0.8375590272116238</v>
       </c>
       <c r="G13">
-        <v>0.9932715404578597</v>
+        <v>1.077482013124339</v>
       </c>
       <c r="H13">
-        <v>0.9938945841856551</v>
+        <v>0.3439787073714256</v>
       </c>
       <c r="I13">
-        <v>0.9946744096261005</v>
+        <v>1.29123217955278</v>
       </c>
       <c r="J13">
-        <v>0.9956769371794372</v>
+        <v>0.9705260111528964</v>
       </c>
       <c r="K13">
-        <v>0.9941687112364865</v>
+        <v>1.043381397333751</v>
       </c>
       <c r="L13">
-        <v>0.9927591642822556</v>
+        <v>0.5737050102409803</v>
       </c>
       <c r="M13">
-        <v>0.9932631326099548</v>
+        <v>1.077482013124339</v>
       </c>
       <c r="N13">
-        <v>0.9947903391127753</v>
+        <v>0.8738848505972303</v>
       </c>
       <c r="O13">
-        <v>0.9940650439194845</v>
+        <v>0.915702685382606</v>
       </c>
       <c r="P13">
-        <v>0.9941924247502771</v>
+        <v>0.942706917476354</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.017839736054624</v>
+        <v>1.309716000000002</v>
       </c>
       <c r="D14">
-        <v>1.028569525148503</v>
+        <v>0.3944600000000001</v>
       </c>
       <c r="E14">
-        <v>0.95585870048236</v>
+        <v>1.108312000000001</v>
       </c>
       <c r="F14">
-        <v>1.003196286303925</v>
+        <v>0.9071920000000002</v>
       </c>
       <c r="G14">
-        <v>1.017839736054624</v>
+        <v>1.309716000000002</v>
       </c>
       <c r="H14">
-        <v>1.028569525148503</v>
+        <v>0.3944600000000001</v>
       </c>
       <c r="I14">
-        <v>0.9739405772916858</v>
+        <v>1.180672</v>
       </c>
       <c r="J14">
-        <v>0.9843320482359066</v>
+        <v>0.8754920000000015</v>
       </c>
       <c r="K14">
-        <v>1.002172672315638</v>
+        <v>1.162468000000001</v>
       </c>
       <c r="L14">
-        <v>1.01296671287698</v>
+        <v>0.6492720000000026</v>
       </c>
       <c r="M14">
-        <v>1.01787297336068</v>
+        <v>1.309716000000002</v>
       </c>
       <c r="N14">
-        <v>0.9922141128154314</v>
+        <v>0.7513860000000003</v>
       </c>
       <c r="O14">
-        <v>1.001366061997353</v>
+        <v>0.9299200000000007</v>
       </c>
       <c r="P14">
-        <v>0.9973595323387028</v>
+        <v>0.9484480000000011</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9486806746275404</v>
+        <v>1.524012500000001</v>
       </c>
       <c r="D15">
-        <v>1.046172334010831</v>
+        <v>0.44</v>
       </c>
       <c r="E15">
-        <v>0.9766981258125575</v>
+        <v>0.84</v>
       </c>
       <c r="F15">
-        <v>1.011031250459383</v>
+        <v>0.9701375000000003</v>
       </c>
       <c r="G15">
-        <v>0.9486806746275404</v>
+        <v>1.524012500000001</v>
       </c>
       <c r="H15">
-        <v>1.046172334010831</v>
+        <v>0.44</v>
       </c>
       <c r="I15">
-        <v>0.9693539070546845</v>
+        <v>1.079724999999999</v>
       </c>
       <c r="J15">
-        <v>1.009117548961016</v>
+        <v>0.7901375000000004</v>
       </c>
       <c r="K15">
-        <v>0.9819569199129816</v>
+        <v>1.271237499999998</v>
       </c>
       <c r="L15">
-        <v>1.034371278075232</v>
+        <v>0.72</v>
       </c>
       <c r="M15">
-        <v>0.9486586716556321</v>
+        <v>1.524012500000001</v>
       </c>
       <c r="N15">
-        <v>1.011435229911694</v>
+        <v>0.64</v>
       </c>
       <c r="O15">
-        <v>0.9956455962275779</v>
+        <v>0.9435375000000004</v>
       </c>
       <c r="P15">
-        <v>0.9971727548642781</v>
+        <v>0.9544062499999999</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.067466239315418</v>
+        <v>1.299947330559997</v>
       </c>
       <c r="D16">
-        <v>0.8773520961605883</v>
+        <v>0.6708016477184017</v>
       </c>
       <c r="E16">
-        <v>1.070699185305034</v>
+        <v>0.907142698598401</v>
       </c>
       <c r="F16">
-        <v>0.9439715217766051</v>
+        <v>0.9796383726591984</v>
       </c>
       <c r="G16">
-        <v>1.067466239315418</v>
+        <v>1.299947330559997</v>
       </c>
       <c r="H16">
-        <v>0.8773520961605883</v>
+        <v>0.6708016477184017</v>
       </c>
       <c r="I16">
-        <v>1.055506493621435</v>
+        <v>1.045323299123201</v>
       </c>
       <c r="J16">
-        <v>0.9784606975843092</v>
+        <v>0.8776181765120009</v>
       </c>
       <c r="K16">
-        <v>1.003181088641286</v>
+        <v>1.153602846003199</v>
       </c>
       <c r="L16">
-        <v>0.9002881726143893</v>
+        <v>0.8333974270975991</v>
       </c>
       <c r="M16">
-        <v>1.067466239315418</v>
+        <v>1.299938626150397</v>
       </c>
       <c r="N16">
-        <v>0.9740256407328109</v>
+        <v>0.7889721731584014</v>
       </c>
       <c r="O16">
-        <v>0.9898722606394112</v>
+        <v>0.9643825123839993</v>
       </c>
       <c r="P16">
-        <v>0.9871156868773832</v>
+        <v>0.9709339747839997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9932715404578597</v>
+      </c>
+      <c r="D17">
+        <v>0.9938945841856551</v>
+      </c>
+      <c r="E17">
+        <v>0.9956860940398954</v>
+      </c>
+      <c r="F17">
+        <v>0.9934079569945276</v>
+      </c>
+      <c r="G17">
+        <v>0.9932715404578597</v>
+      </c>
+      <c r="H17">
+        <v>0.9938945841856551</v>
+      </c>
+      <c r="I17">
+        <v>0.9946744096261005</v>
+      </c>
+      <c r="J17">
+        <v>0.9956769371794372</v>
+      </c>
+      <c r="K17">
+        <v>0.9941687112364865</v>
+      </c>
+      <c r="L17">
+        <v>0.9927591642822557</v>
+      </c>
+      <c r="M17">
+        <v>0.9932631326099548</v>
+      </c>
+      <c r="N17">
+        <v>0.9947903391127753</v>
+      </c>
+      <c r="O17">
+        <v>0.9940650439194845</v>
+      </c>
+      <c r="P17">
+        <v>0.9941924247502772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.017839736054624</v>
+      </c>
+      <c r="D18">
+        <v>1.028569525148503</v>
+      </c>
+      <c r="E18">
+        <v>0.95585870048236</v>
+      </c>
+      <c r="F18">
+        <v>1.003196286303925</v>
+      </c>
+      <c r="G18">
+        <v>1.017839736054624</v>
+      </c>
+      <c r="H18">
+        <v>1.028569525148503</v>
+      </c>
+      <c r="I18">
+        <v>0.9739405772916858</v>
+      </c>
+      <c r="J18">
+        <v>0.9843320482359066</v>
+      </c>
+      <c r="K18">
+        <v>1.002172672315638</v>
+      </c>
+      <c r="L18">
+        <v>1.01296671287698</v>
+      </c>
+      <c r="M18">
+        <v>1.01787297336068</v>
+      </c>
+      <c r="N18">
+        <v>0.9922141128154314</v>
+      </c>
+      <c r="O18">
+        <v>1.001366061997353</v>
+      </c>
+      <c r="P18">
+        <v>0.9973595323387028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9486806746275404</v>
+      </c>
+      <c r="D19">
+        <v>1.046172334010831</v>
+      </c>
+      <c r="E19">
+        <v>0.9766981258125575</v>
+      </c>
+      <c r="F19">
+        <v>1.011031250459383</v>
+      </c>
+      <c r="G19">
+        <v>0.9486806746275404</v>
+      </c>
+      <c r="H19">
+        <v>1.046172334010831</v>
+      </c>
+      <c r="I19">
+        <v>0.9693539070546845</v>
+      </c>
+      <c r="J19">
+        <v>1.009117548961016</v>
+      </c>
+      <c r="K19">
+        <v>0.9819569199129816</v>
+      </c>
+      <c r="L19">
+        <v>1.034371278075232</v>
+      </c>
+      <c r="M19">
+        <v>0.9486586716556321</v>
+      </c>
+      <c r="N19">
+        <v>1.011435229911694</v>
+      </c>
+      <c r="O19">
+        <v>0.9956455962275779</v>
+      </c>
+      <c r="P19">
+        <v>0.9971727548642781</v>
       </c>
     </row>
   </sheetData>
